--- a/Distance_30.xlsx
+++ b/Distance_30.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tu Tran Ngoc Minh\Desktop\heuristics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B90A309-61F6-4DC6-9435-ECF773B6B400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD5627-B6FE-4AE4-8B73-B4A282F27F0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1395" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="15" windowWidth="18705" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Dist">Sheet1!$B$2:$AH$34</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -434,16 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
@@ -608,7 +594,7 @@
         <v>7.0829373639081723</v>
       </c>
       <c r="U2">
-        <v>8.4842765870004513</v>
+        <v>8.3319321299329836</v>
       </c>
       <c r="V2">
         <v>5.6308960692493946</v>
@@ -647,7 +633,7 @@
         <v>10.001918081284931</v>
       </c>
       <c r="AH2">
-        <v>10.08398741479191</v>
+        <v>9.810357514020696</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -712,7 +698,7 @@
         <v>12.32042183368822</v>
       </c>
       <c r="U3">
-        <v>14.303400124975401</v>
+        <v>14.096913001440679</v>
       </c>
       <c r="V3">
         <v>4.4969982501872501</v>
@@ -751,7 +737,7 @@
         <v>15.946005146282211</v>
       </c>
       <c r="AH3">
-        <v>3.8432649251029338</v>
+        <v>3.6124720073998859</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -816,7 +802,7 @@
         <v>8.8892897778341045</v>
       </c>
       <c r="U4">
-        <v>11.088113720538299</v>
+        <v>10.854777264502269</v>
       </c>
       <c r="V4">
         <v>0.98579049562587362</v>
@@ -855,7 +841,7 @@
         <v>12.76685473317907</v>
       </c>
       <c r="AH4">
-        <v>7.5326391795224792</v>
+        <v>7.3404745108833653</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -920,7 +906,7 @@
         <v>0.86928316566471919</v>
       </c>
       <c r="U5">
-        <v>1.7883463490557121</v>
+        <v>1.5183415829201989</v>
       </c>
       <c r="V5">
         <v>9.730217913282047</v>
@@ -959,7 +945,7 @@
         <v>3.3063037530221679</v>
       </c>
       <c r="AH5">
-        <v>17.0261035896546</v>
+        <v>16.792118207683739</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1024,7 +1010,7 @@
         <v>12.61151177063963</v>
       </c>
       <c r="U6">
-        <v>14.57636613974679</v>
+        <v>14.37212037960073</v>
       </c>
       <c r="V6">
         <v>4.8229440277436968</v>
@@ -1063,7 +1049,7 @@
         <v>16.21452650788088</v>
       </c>
       <c r="AH6">
-        <v>3.5578797737610861</v>
+        <v>3.3195688636300891</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1128,7 +1114,7 @@
         <v>19.367551989493169</v>
       </c>
       <c r="U7">
-        <v>21.281776479713049</v>
+        <v>21.045052884670952</v>
       </c>
       <c r="V7">
         <v>17.57073058045766</v>
@@ -1167,7 +1153,7 @@
         <v>22.238150949109372</v>
       </c>
       <c r="AH7">
-        <v>23.145985166250409</v>
+        <v>23.162290716666838</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1232,7 +1218,7 @@
         <v>9.7058595385031392</v>
       </c>
       <c r="U8">
-        <v>11.06570471297098</v>
+        <v>10.924085921599</v>
       </c>
       <c r="V8">
         <v>6.1845520528946594</v>
@@ -1271,7 +1257,7 @@
         <v>12.54120928887974</v>
       </c>
       <c r="AH8">
-        <v>8.1428873370921924</v>
+        <v>7.8538715110607722</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1336,7 +1322,7 @@
         <v>12.22029964740293</v>
       </c>
       <c r="U9">
-        <v>14.17785358267135</v>
+        <v>13.97419069329891</v>
       </c>
       <c r="V9">
         <v>4.5429562072660739</v>
@@ -1375,7 +1361,7 @@
         <v>15.815052760263679</v>
       </c>
       <c r="AH9">
-        <v>3.9546126350235662</v>
+        <v>3.713206710585375</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -1440,7 +1426,7 @@
         <v>9.2326390590203609</v>
       </c>
       <c r="U10">
-        <v>10.59497870049087</v>
+        <v>10.452163236447211</v>
       </c>
       <c r="V10">
         <v>6.019789794909066</v>
@@ -1479,7 +1465,7 @@
         <v>12.07580261685386</v>
       </c>
       <c r="AH10">
-        <v>8.4784164129698798</v>
+        <v>8.1916801372060135</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1544,7 +1530,7 @@
         <v>7.0278054344138043</v>
       </c>
       <c r="U11">
-        <v>8.4486844474786249</v>
+        <v>8.2941955638467295</v>
       </c>
       <c r="V11">
         <v>5.5610401420519837</v>
@@ -1583,7 +1569,7 @@
         <v>9.9726784687451815</v>
       </c>
       <c r="AH11">
-        <v>10.083167525213049</v>
+        <v>9.8104784114406858</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -1648,7 +1634,7 @@
         <v>12.11661958898766</v>
       </c>
       <c r="U12">
-        <v>14.07438756945179</v>
+        <v>13.870632429995901</v>
       </c>
       <c r="V12">
         <v>4.460417739648892</v>
@@ -1687,7 +1673,7 @@
         <v>15.711820229849881</v>
       </c>
       <c r="AH12">
-        <v>4.058252629038404</v>
+        <v>3.8169641258903839</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -1752,7 +1738,7 @@
         <v>19.37621495316462</v>
       </c>
       <c r="U13">
-        <v>21.29176378650342</v>
+        <v>21.054930865248121</v>
       </c>
       <c r="V13">
         <v>17.57033357927774</v>
@@ -1791,7 +1777,7 @@
         <v>22.24919721237616</v>
       </c>
       <c r="AH13">
-        <v>23.140057405531412</v>
+        <v>23.15660117593761</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -1856,7 +1842,7 @@
         <v>11.98165936839345</v>
       </c>
       <c r="U14">
-        <v>13.94313036603188</v>
+        <v>13.7388665011258</v>
       </c>
       <c r="V14">
         <v>4.3367093725702199</v>
@@ -1895,7 +1881,7 @@
         <v>15.58162761998574</v>
       </c>
       <c r="AH14">
-        <v>4.1907858788197894</v>
+        <v>3.950862714997367</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -1960,7 +1946,7 @@
         <v>7.0736467404643948</v>
       </c>
       <c r="U15">
-        <v>8.5523952145794908</v>
+        <v>8.3922148498946783</v>
       </c>
       <c r="V15">
         <v>5.3286043111115458</v>
@@ -1999,7 +1985,7 @@
         <v>10.092102912333051</v>
       </c>
       <c r="AH15">
-        <v>9.9048626630045504</v>
+        <v>9.6339337890345433</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -2064,7 +2050,7 @@
         <v>0.1451277082145247</v>
       </c>
       <c r="U16">
-        <v>2.6066951026003249</v>
+        <v>2.3363598301299868</v>
       </c>
       <c r="V16">
         <v>8.7297700810999679</v>
@@ -2103,7 +2089,7 @@
         <v>4.2268120929589594</v>
       </c>
       <c r="AH16">
-        <v>16.039816298505869</v>
+        <v>15.807901666180429</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -2168,7 +2154,7 @@
         <v>3.6398687078962899</v>
       </c>
       <c r="U17">
-        <v>1.2145173480715561</v>
+        <v>1.467160599840845</v>
       </c>
       <c r="V17">
         <v>12.381571923803611</v>
@@ -2207,7 +2193,7 @@
         <v>0.47230955949161801</v>
       </c>
       <c r="AH17">
-        <v>19.295429474676361</v>
+        <v>19.04499339444714</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -2272,7 +2258,7 @@
         <v>19.390754740951909</v>
       </c>
       <c r="U18">
-        <v>21.308930831424458</v>
+        <v>21.07188053370551</v>
       </c>
       <c r="V18">
         <v>17.567215736039969</v>
@@ -2311,7 +2297,7 @@
         <v>22.268478665385711</v>
       </c>
       <c r="AH18">
-        <v>23.126392328184959</v>
+        <v>23.14338565211191</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -2376,7 +2362,7 @@
         <v>13.260482405795861</v>
       </c>
       <c r="U19">
-        <v>15.61667391514861</v>
+        <v>15.36520338101904</v>
       </c>
       <c r="V19">
         <v>4.5073926281310888</v>
@@ -2415,7 +2401,7 @@
         <v>17.292816072479638</v>
       </c>
       <c r="AH19">
-        <v>6.0966659098899258</v>
+        <v>6.0969869358810751</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -2480,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>2.4629509221030448</v>
+        <v>2.192322919272903</v>
       </c>
       <c r="V20">
         <v>8.8694308894085623</v>
@@ -2519,7 +2505,7 @@
         <v>4.0816845066560221</v>
       </c>
       <c r="AH20">
-        <v>16.163550349054042</v>
+        <v>15.93077898836207</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -2527,103 +2513,103 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.4842765870004513</v>
+        <v>8.3319321299329836</v>
       </c>
       <c r="C21">
-        <v>14.303400124975401</v>
+        <v>14.096913001440679</v>
       </c>
       <c r="D21">
-        <v>11.088113720538299</v>
+        <v>10.854777264502269</v>
       </c>
       <c r="E21">
-        <v>1.7883463490557121</v>
+        <v>1.5183415829201989</v>
       </c>
       <c r="F21">
-        <v>14.57636613974679</v>
+        <v>14.37212037960073</v>
       </c>
       <c r="G21">
-        <v>21.281776479713049</v>
+        <v>21.045052884670952</v>
       </c>
       <c r="H21">
-        <v>11.06570471297098</v>
+        <v>10.924085921599</v>
       </c>
       <c r="I21">
-        <v>14.17785358267135</v>
+        <v>13.97419069329891</v>
       </c>
       <c r="J21">
-        <v>10.59497870049087</v>
+        <v>10.452163236447211</v>
       </c>
       <c r="K21">
-        <v>8.4486844474786249</v>
+        <v>8.2941955638467295</v>
       </c>
       <c r="L21">
-        <v>14.07438756945179</v>
+        <v>13.870632429995901</v>
       </c>
       <c r="M21">
-        <v>21.29176378650342</v>
+        <v>21.054930865248121</v>
       </c>
       <c r="N21">
-        <v>13.94313036603188</v>
+        <v>13.7388665011258</v>
       </c>
       <c r="O21">
-        <v>8.5523952145794908</v>
+        <v>8.3922148498946783</v>
       </c>
       <c r="P21">
-        <v>2.6066951026003249</v>
+        <v>2.3363598301299868</v>
       </c>
       <c r="Q21">
-        <v>1.2145173480715561</v>
+        <v>1.467160599840845</v>
       </c>
       <c r="R21">
-        <v>21.308930831424458</v>
+        <v>21.07188053370551</v>
       </c>
       <c r="S21">
-        <v>15.61667391514861</v>
+        <v>15.36520338101904</v>
       </c>
       <c r="T21">
-        <v>2.4629509221030448</v>
+        <v>2.192322919272903</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>11.16731374501115</v>
+        <v>10.92226044025368</v>
       </c>
       <c r="W21">
-        <v>21.24843410597887</v>
+        <v>21.012512059417709</v>
       </c>
       <c r="X21">
-        <v>11.113241797376171</v>
+        <v>10.86851328918732</v>
       </c>
       <c r="Y21">
-        <v>2.0417948180195511</v>
+        <v>1.772513929658498</v>
       </c>
       <c r="Z21">
-        <v>14.03421361107984</v>
+        <v>13.828462439235389</v>
       </c>
       <c r="AA21">
-        <v>17.246175434277351</v>
+        <v>17.050682784620442</v>
       </c>
       <c r="AB21">
-        <v>8.2915094182565738</v>
+        <v>8.1334918049025156</v>
       </c>
       <c r="AC21">
-        <v>15.163606994446781</v>
+        <v>14.962761399099341</v>
       </c>
       <c r="AD21">
-        <v>8.1601913057150064</v>
+        <v>7.9972463155949036</v>
       </c>
       <c r="AE21">
-        <v>11.08586997228276</v>
+        <v>10.94517002397501</v>
       </c>
       <c r="AF21">
-        <v>10.78681443189838</v>
+        <v>10.65766941035424</v>
       </c>
       <c r="AG21">
-        <v>1.6813649653132141</v>
+        <v>1.9277110740665699</v>
       </c>
       <c r="AH21">
-        <v>18.131389254418352</v>
+        <v>17.682643761129949</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -2688,7 +2674,7 @@
         <v>8.8694308894085623</v>
       </c>
       <c r="U22">
-        <v>11.16731374501115</v>
+        <v>10.92226044025368</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2727,7 +2713,7 @@
         <v>12.84809058373988</v>
       </c>
       <c r="AH22">
-        <v>7.9957559886537064</v>
+        <v>7.8296966289258219</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -2792,7 +2778,7 @@
         <v>19.343799200355619</v>
       </c>
       <c r="U23">
-        <v>21.24843410597887</v>
+        <v>21.012512059417709</v>
       </c>
       <c r="V23">
         <v>17.607325897971261</v>
@@ -2831,7 +2817,7 @@
         <v>22.196984138004371</v>
       </c>
       <c r="AH23">
-        <v>23.215564385798942</v>
+        <v>23.23050338255786</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -2896,7 +2882,7 @@
         <v>8.8182059113008826</v>
       </c>
       <c r="U24">
-        <v>11.113241797376171</v>
+        <v>10.86851328918732</v>
       </c>
       <c r="V24">
         <v>6.1524076935381297E-2</v>
@@ -2935,7 +2921,7 @@
         <v>12.79412309677776</v>
       </c>
       <c r="AH24">
-        <v>8.020252424827472</v>
+        <v>7.8524646130189089</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -3000,7 +2986,7 @@
         <v>0.42626135648274061</v>
       </c>
       <c r="U25">
-        <v>2.0417948180195511</v>
+        <v>1.772513929658498</v>
       </c>
       <c r="V25">
         <v>9.2341721317515848</v>
@@ -3039,7 +3025,7 @@
         <v>3.6745004610595999</v>
       </c>
       <c r="AH25">
-        <v>16.45402462706171</v>
+        <v>16.217842538721719</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -3104,7 +3090,7 @@
         <v>12.059159963862751</v>
       </c>
       <c r="U26">
-        <v>14.03421361107984</v>
+        <v>13.828462439235389</v>
       </c>
       <c r="V26">
         <v>4.3275724184839284</v>
@@ -3143,7 +3129,7 @@
         <v>15.67554107693141</v>
       </c>
       <c r="AH26">
-        <v>4.1064562113097782</v>
+        <v>3.8716983348479261</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -3208,7 +3194,7 @@
         <v>15.34494214398541</v>
       </c>
       <c r="U27">
-        <v>17.246175434277351</v>
+        <v>17.050682784620442</v>
       </c>
       <c r="V27">
         <v>7.4848023206265211</v>
@@ -3247,7 +3233,7 @@
         <v>18.864508222038619</v>
       </c>
       <c r="AH27">
-        <v>1.1222118239311349</v>
+        <v>0.83024563539187546</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -3312,7 +3298,7 @@
         <v>6.8414644882933731</v>
       </c>
       <c r="U28">
-        <v>8.2915094182565738</v>
+        <v>8.1334918049025156</v>
       </c>
       <c r="V28">
         <v>5.4741141791180663</v>
@@ -3351,7 +3337,7 @@
         <v>9.8261522947796731</v>
       </c>
       <c r="AH28">
-        <v>10.17599308519093</v>
+        <v>9.9053272496583542</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -3416,7 +3402,7 @@
         <v>13.225387751640749</v>
       </c>
       <c r="U29">
-        <v>15.163606994446781</v>
+        <v>14.962761399099341</v>
       </c>
       <c r="V29">
         <v>5.460124465347965</v>
@@ -3455,7 +3441,7 @@
         <v>16.794599186210661</v>
       </c>
       <c r="AH29">
-        <v>2.972340510074305</v>
+        <v>2.720346890089067</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -3520,7 +3506,7 @@
         <v>6.6665651862403328</v>
       </c>
       <c r="U30">
-        <v>8.1601913057150064</v>
+        <v>7.9972463155949036</v>
       </c>
       <c r="V30">
         <v>5.3409180996606294</v>
@@ -3559,7 +3545,7 @@
         <v>9.7089244919351785</v>
       </c>
       <c r="AH30">
-        <v>10.233731657315079</v>
+        <v>9.9655707539998879</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -3624,7 +3610,7 @@
         <v>9.7342041551181353</v>
       </c>
       <c r="U31">
-        <v>11.08586997228276</v>
+        <v>10.94517002397501</v>
       </c>
       <c r="V31">
         <v>6.2318303683009244</v>
@@ -3663,7 +3649,7 @@
         <v>12.558345248855961</v>
       </c>
       <c r="AH31">
-        <v>8.1548310324311704</v>
+        <v>7.8655314058317982</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -3728,7 +3714,7 @@
         <v>9.5480926741139687</v>
       </c>
       <c r="U32" s="2">
-        <v>10.78681443189838</v>
+        <v>10.65766941035424</v>
       </c>
       <c r="V32" s="2">
         <v>6.6624664707251737</v>
@@ -3767,7 +3753,7 @@
         <v>12.221967201858631</v>
       </c>
       <c r="AH32" s="2">
-        <v>8.7276868093552213</v>
+        <v>8.4373320234931182</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
@@ -3832,7 +3818,7 @@
         <v>4.0816845066560221</v>
       </c>
       <c r="U33" s="2">
-        <v>1.6813649653132141</v>
+        <v>1.9277110740665699</v>
       </c>
       <c r="V33" s="2">
         <v>12.84809058373988</v>
@@ -3871,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="2">
-        <v>19.765395208858479</v>
+        <v>19.51457583835786</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -3879,178 +3865,103 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>10.08398741479191</v>
+        <v>9.810357514020696</v>
       </c>
       <c r="C34" s="2">
-        <v>3.8432649251029338</v>
+        <v>3.6124720073998859</v>
       </c>
       <c r="D34" s="2">
-        <v>7.5326391795224792</v>
+        <v>7.3404745108833653</v>
       </c>
       <c r="E34" s="2">
-        <v>17.0261035896546</v>
+        <v>16.792118207683739</v>
       </c>
       <c r="F34" s="2">
-        <v>3.5578797737610861</v>
+        <v>3.3195688636300891</v>
       </c>
       <c r="G34" s="2">
-        <v>23.145985166250409</v>
+        <v>23.162290716666838</v>
       </c>
       <c r="H34" s="2">
-        <v>8.1428873370921924</v>
+        <v>7.8538715110607722</v>
       </c>
       <c r="I34" s="2">
-        <v>3.9546126350235662</v>
+        <v>3.713206710585375</v>
       </c>
       <c r="J34" s="2">
-        <v>8.4784164129698798</v>
+        <v>8.1916801372060135</v>
       </c>
       <c r="K34" s="2">
-        <v>10.083167525213049</v>
+        <v>9.8104784114406858</v>
       </c>
       <c r="L34" s="2">
-        <v>4.058252629038404</v>
+        <v>3.8169641258903839</v>
       </c>
       <c r="M34" s="2">
-        <v>23.140057405531412</v>
+        <v>23.15660117593761</v>
       </c>
       <c r="N34" s="2">
-        <v>4.1907858788197894</v>
+        <v>3.950862714997367</v>
       </c>
       <c r="O34" s="2">
-        <v>9.9048626630045504</v>
+        <v>9.6339337890345433</v>
       </c>
       <c r="P34" s="2">
-        <v>16.039816298505869</v>
+        <v>15.807901666180429</v>
       </c>
       <c r="Q34" s="2">
-        <v>19.295429474676361</v>
+        <v>19.04499339444714</v>
       </c>
       <c r="R34" s="2">
-        <v>23.126392328184959</v>
+        <v>23.14338565211191</v>
       </c>
       <c r="S34" s="2">
-        <v>6.0966659098899258</v>
+        <v>6.0969869358810751</v>
       </c>
       <c r="T34" s="2">
-        <v>16.163550349054042</v>
+        <v>15.93077898836207</v>
       </c>
       <c r="U34" s="2">
-        <v>18.131389254418352</v>
+        <v>17.682643761129949</v>
       </c>
       <c r="V34" s="2">
-        <v>7.9957559886537064</v>
+        <v>7.8296966289258219</v>
       </c>
       <c r="W34" s="2">
-        <v>23.215564385798942</v>
+        <v>23.23050338255786</v>
       </c>
       <c r="X34" s="2">
-        <v>8.020252424827472</v>
+        <v>7.8524646130189089</v>
       </c>
       <c r="Y34" s="2">
-        <v>16.45402462706171</v>
+        <v>16.217842538721719</v>
       </c>
       <c r="Z34" s="2">
-        <v>4.1064562113097782</v>
+        <v>3.8716983348479261</v>
       </c>
       <c r="AA34" s="2">
-        <v>1.1222118239311349</v>
+        <v>0.83024563539187546</v>
       </c>
       <c r="AB34" s="2">
-        <v>10.17599308519093</v>
+        <v>9.9053272496583542</v>
       </c>
       <c r="AC34" s="2">
-        <v>2.972340510074305</v>
+        <v>2.720346890089067</v>
       </c>
       <c r="AD34" s="2">
-        <v>10.233731657315079</v>
+        <v>9.9655707539998879</v>
       </c>
       <c r="AE34" s="2">
-        <v>8.1548310324311704</v>
+        <v>7.8655314058317982</v>
       </c>
       <c r="AF34" s="2">
-        <v>8.7276868093552213</v>
+        <v>8.4373320234931182</v>
       </c>
       <c r="AG34" s="2">
-        <v>19.765395208858479</v>
+        <v>19.51457583835786</v>
       </c>
       <c r="AH34" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f>INDEX(Dist,30+1,13+1)+INDEX(Dist,13+1,9+1)+INDEX(Dist,9+1,0+1)+INDEX(Dist,0+1,30+1)</f>
-        <v>5.4116890243022473</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <f>INDEX(Dist, 31+1,14+1)+INDEX(Dist,14+1,16+1)+INDEX(Dist,16+1,11+1)+INDEX(Dist,11+1,5+1)+INDEX(Dist,5+1,21+1)+INDEX(Dist,21+1,31+1)</f>
-        <v>45.906061860565679</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <f>INDEX(Dist,32+1,4+1)+INDEX(Dist,4+1,1+1)+INDEX(Dist,1+1,12+1)+INDEX(Dist,12+1,27+1)+INDEX(Dist,27+1,7+1)+INDEX(Dist,7+1,10+1)+INDEX(Dist,10+1,24+1)+INDEX(Dist,24+1,32+1)</f>
-        <v>10.917426515225436</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f>INDEX(Dist,30+1,6+1)+INDEX(Dist,6+1,28+1)+INDEX(Dist,28+1,26+1)+INDEX(Dist,26+1,8+1)+INDEX(Dist,8+1,30+1)</f>
-        <v>6.9449522189548256</v>
-      </c>
-      <c r="D37">
-        <f>INDEX(Dist,31+1,3+1)+INDEX(Dist,3+1,18+1)+INDEX(Dist,18+1,23+1)+INDEX(Dist,23+1,19+1)+INDEX(Dist,19+1,31+1)</f>
-        <v>8.3250080585023927</v>
-      </c>
-      <c r="F37">
-        <f>INDEX(Dist,32+1,17+1)+INDEX(Dist,17+1,25+1)+INDEX(Dist,25+1,32+1)</f>
-        <v>13.481516814638297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f>INDEX(Dist,30+1,29+1)+INDEX(Dist,29+1,2+1)+INDEX(Dist,2+1,20+1)+INDEX(Dist,20+1,22+1)+INDEX(Dist,22+1,30+1)</f>
-        <v>13.531573676170471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f>SUM(B36:B38)</f>
-        <v>25.888214919427543</v>
-      </c>
-      <c r="D39">
-        <f>SUM(D36:D38)</f>
-        <v>54.231069919068069</v>
-      </c>
-      <c r="F39">
-        <f>SUM(F36:F38)</f>
-        <v>24.398943329863734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f>B39*0.2+C36*0.8</f>
-        <v>7.5776429838855091</v>
-      </c>
-      <c r="D40">
-        <f>D39*0.2+E36*0.8</f>
-        <v>12.446213983813614</v>
-      </c>
-      <c r="F40">
-        <f>F39*0.2+G36*0.8</f>
-        <v>6.4797886659727464</v>
-      </c>
-      <c r="H40">
-        <f>SUM(B40:F40)</f>
-        <v>26.503645633671873</v>
       </c>
     </row>
   </sheetData>
